--- a/Code/Results/Cases/Case_4_178/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_178/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>1.007555659222422</v>
+        <v>1.037519885721228</v>
       </c>
       <c r="D2">
-        <v>1.027580522749103</v>
+        <v>1.044424457115568</v>
       </c>
       <c r="E2">
-        <v>1.026232603381457</v>
+        <v>1.050782331667564</v>
       </c>
       <c r="F2">
-        <v>1.034953761979559</v>
+        <v>1.057584328885758</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047337332367835</v>
+        <v>1.037148687827609</v>
       </c>
       <c r="J2">
-        <v>1.029512706666282</v>
+        <v>1.04262231252285</v>
       </c>
       <c r="K2">
-        <v>1.038668537610299</v>
+        <v>1.047195545589036</v>
       </c>
       <c r="L2">
-        <v>1.037338184241647</v>
+        <v>1.053535653057078</v>
       </c>
       <c r="M2">
-        <v>1.045946701216548</v>
+        <v>1.060318898330117</v>
       </c>
       <c r="N2">
-        <v>1.013599716898894</v>
+        <v>1.018125825952509</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011677248271503</v>
+        <v>1.038410218801321</v>
       </c>
       <c r="D3">
-        <v>1.030561787209602</v>
+        <v>1.04508886747814</v>
       </c>
       <c r="E3">
-        <v>1.029838896606922</v>
+        <v>1.051614634263806</v>
       </c>
       <c r="F3">
-        <v>1.038514522344788</v>
+        <v>1.058400274699204</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048219561381448</v>
+        <v>1.037282031760202</v>
       </c>
       <c r="J3">
-        <v>1.031854563605052</v>
+        <v>1.043157355805672</v>
       </c>
       <c r="K3">
-        <v>1.040818005585846</v>
+        <v>1.047671574350511</v>
       </c>
       <c r="L3">
-        <v>1.040103704266232</v>
+        <v>1.054180419920195</v>
       </c>
       <c r="M3">
-        <v>1.048677223773752</v>
+        <v>1.060948703901473</v>
       </c>
       <c r="N3">
-        <v>1.014394330053395</v>
+        <v>1.018305557543465</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014295661713925</v>
+        <v>1.038987080238854</v>
       </c>
       <c r="D4">
-        <v>1.032458112696263</v>
+        <v>1.045519262808981</v>
       </c>
       <c r="E4">
-        <v>1.032135279042804</v>
+        <v>1.05215422611793</v>
       </c>
       <c r="F4">
-        <v>1.040781146524815</v>
+        <v>1.058929134409287</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048770201446333</v>
+        <v>1.037367190653197</v>
       </c>
       <c r="J4">
-        <v>1.0333406198108</v>
+        <v>1.043503674883248</v>
       </c>
       <c r="K4">
-        <v>1.042179965017339</v>
+        <v>1.047979390252241</v>
       </c>
       <c r="L4">
-        <v>1.04186073324361</v>
+        <v>1.054598013342429</v>
       </c>
       <c r="M4">
-        <v>1.050411085493507</v>
+        <v>1.061356463884899</v>
       </c>
       <c r="N4">
-        <v>1.014898306357708</v>
+        <v>1.018421833660802</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015385198954795</v>
+        <v>1.039229772360095</v>
       </c>
       <c r="D5">
-        <v>1.033247698880545</v>
+        <v>1.045700313531452</v>
       </c>
       <c r="E5">
-        <v>1.033092060136747</v>
+        <v>1.052381316824188</v>
       </c>
       <c r="F5">
-        <v>1.041725338749139</v>
+        <v>1.059151677777257</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048996929339298</v>
+        <v>1.037402721813344</v>
       </c>
       <c r="J5">
-        <v>1.033958536840829</v>
+        <v>1.043649292559623</v>
       </c>
       <c r="K5">
-        <v>1.042745784926639</v>
+        <v>1.048108745298317</v>
       </c>
       <c r="L5">
-        <v>1.042591835930258</v>
+        <v>1.054773660551483</v>
       </c>
       <c r="M5">
-        <v>1.051132318227522</v>
+        <v>1.061527940557921</v>
       </c>
       <c r="N5">
-        <v>1.015107800234988</v>
+        <v>1.018470710334918</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.0155674882955</v>
+        <v>1.039270531921559</v>
       </c>
       <c r="D6">
-        <v>1.033379832500482</v>
+        <v>1.045730719291616</v>
       </c>
       <c r="E6">
-        <v>1.033252210195713</v>
+        <v>1.052419460742418</v>
       </c>
       <c r="F6">
-        <v>1.041883370259176</v>
+        <v>1.059189056091174</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049034721003385</v>
+        <v>1.03740867182062</v>
       </c>
       <c r="J6">
-        <v>1.034061893190423</v>
+        <v>1.04367374384535</v>
       </c>
       <c r="K6">
-        <v>1.042840397647619</v>
+        <v>1.048130461565026</v>
       </c>
       <c r="L6">
-        <v>1.042714154519504</v>
+        <v>1.054803157779305</v>
       </c>
       <c r="M6">
-        <v>1.05125297180195</v>
+        <v>1.061556735389025</v>
       </c>
       <c r="N6">
-        <v>1.015142837501527</v>
+        <v>1.018478916589131</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014310263859526</v>
+        <v>1.038990322399142</v>
       </c>
       <c r="D7">
-        <v>1.032468692887408</v>
+        <v>1.045521681577668</v>
       </c>
       <c r="E7">
-        <v>1.032148097110205</v>
+        <v>1.052157259549605</v>
       </c>
       <c r="F7">
-        <v>1.040793796697529</v>
+        <v>1.058932107218952</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04877324960015</v>
+        <v>1.037367666482614</v>
       </c>
       <c r="J7">
-        <v>1.033348903005046</v>
+        <v>1.04350562053659</v>
       </c>
       <c r="K7">
-        <v>1.042187551826404</v>
+        <v>1.047981118901794</v>
       </c>
       <c r="L7">
-        <v>1.041870531669115</v>
+        <v>1.054600359993618</v>
       </c>
       <c r="M7">
-        <v>1.050420752555891</v>
+        <v>1.0613587549529</v>
       </c>
       <c r="N7">
-        <v>1.014901114887576</v>
+        <v>1.018422486776729</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008958848828333</v>
+        <v>1.037820620427025</v>
       </c>
       <c r="D8">
-        <v>1.028594966934324</v>
+        <v>1.044648897799303</v>
       </c>
       <c r="E8">
-        <v>1.027459221976028</v>
+        <v>1.051063396528754</v>
       </c>
       <c r="F8">
-        <v>1.036165048911797</v>
+        <v>1.057859896546268</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047639721927431</v>
+        <v>1.037193984275485</v>
       </c>
       <c r="J8">
-        <v>1.030310327690219</v>
+        <v>1.042803109304641</v>
       </c>
       <c r="K8">
-        <v>1.039401046065016</v>
+        <v>1.047356463713164</v>
       </c>
       <c r="L8">
-        <v>1.038279655949838</v>
+        <v>1.053753474174816</v>
       </c>
       <c r="M8">
-        <v>1.046876449919177</v>
+        <v>1.060531694749562</v>
       </c>
       <c r="N8">
-        <v>1.013870408635734</v>
+        <v>1.018186571400911</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9991396078743806</v>
+        <v>1.035765316134513</v>
       </c>
       <c r="D9">
-        <v>1.021508154863305</v>
+        <v>1.043114675559138</v>
       </c>
       <c r="E9">
-        <v>1.018899693525054</v>
+        <v>1.049143888809025</v>
       </c>
       <c r="F9">
-        <v>1.02770957799612</v>
+        <v>1.055977410667095</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045483655856229</v>
+        <v>1.036879358170115</v>
       </c>
       <c r="J9">
-        <v>1.024722785432131</v>
+        <v>1.041566095616009</v>
       </c>
       <c r="K9">
-        <v>1.034261655837821</v>
+        <v>1.046254217695499</v>
       </c>
       <c r="L9">
-        <v>1.031693401846601</v>
+        <v>1.052264177371582</v>
       </c>
       <c r="M9">
-        <v>1.040368532978188</v>
+        <v>1.059076167749025</v>
       </c>
       <c r="N9">
-        <v>1.011973185944017</v>
+        <v>1.017770709299369</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9923055711484533</v>
+        <v>1.03439914307695</v>
       </c>
       <c r="D10">
-        <v>1.016593597275704</v>
+        <v>1.042094476668717</v>
       </c>
       <c r="E10">
-        <v>1.012974807809616</v>
+        <v>1.047869717421468</v>
       </c>
       <c r="F10">
-        <v>1.021853336878926</v>
+        <v>1.054727162926161</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043934030615483</v>
+        <v>1.036663880825162</v>
       </c>
       <c r="J10">
-        <v>1.020827830833498</v>
+        <v>1.040742101087567</v>
       </c>
       <c r="K10">
-        <v>1.030669576033648</v>
+        <v>1.045518440787194</v>
       </c>
       <c r="L10">
-        <v>1.027113684178713</v>
+        <v>1.051273436133985</v>
       </c>
       <c r="M10">
-        <v>1.035838922985859</v>
+        <v>1.058107159344709</v>
       </c>
       <c r="N10">
-        <v>1.010649596857347</v>
+        <v>1.017493396324403</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9892718325898232</v>
+        <v>1.03380854970372</v>
       </c>
       <c r="D11">
-        <v>1.014416979203297</v>
+        <v>1.041653361968386</v>
       </c>
       <c r="E11">
-        <v>1.010352965068213</v>
+        <v>1.047319314788292</v>
       </c>
       <c r="F11">
-        <v>1.019261177722808</v>
+        <v>1.054186940610297</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043235063669487</v>
+        <v>1.036569226753983</v>
       </c>
       <c r="J11">
-        <v>1.019097828058617</v>
+        <v>1.040385479855142</v>
       </c>
       <c r="K11">
-        <v>1.029072039298793</v>
+        <v>1.045199633322448</v>
       </c>
       <c r="L11">
-        <v>1.025082245463811</v>
+        <v>1.050844956820723</v>
       </c>
       <c r="M11">
-        <v>1.033828773665018</v>
+        <v>1.057687906183367</v>
       </c>
       <c r="N11">
-        <v>1.010061494392773</v>
+        <v>1.017373305803039</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9881331965983772</v>
+        <v>1.033589324048416</v>
       </c>
       <c r="D12">
-        <v>1.013600870493946</v>
+        <v>1.041489609999868</v>
       </c>
       <c r="E12">
-        <v>1.009370227498879</v>
+        <v>1.0471150712191</v>
       </c>
       <c r="F12">
-        <v>1.018289472098935</v>
+        <v>1.053986451669231</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042971112029441</v>
+        <v>1.036533865700757</v>
       </c>
       <c r="J12">
-        <v>1.018448412594837</v>
+        <v>1.040253042243656</v>
       </c>
       <c r="K12">
-        <v>1.028472057181032</v>
+        <v>1.045081183625847</v>
       </c>
       <c r="L12">
-        <v>1.024320083921083</v>
+        <v>1.050685879902941</v>
       </c>
       <c r="M12">
-        <v>1.033074467374697</v>
+        <v>1.057532228633958</v>
       </c>
       <c r="N12">
-        <v>1.009840702330761</v>
+        <v>1.01732869749181</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9883779800506934</v>
+        <v>1.033636342018542</v>
       </c>
       <c r="D13">
-        <v>1.0137762785071</v>
+        <v>1.0415247309043</v>
       </c>
       <c r="E13">
-        <v>1.009581436137174</v>
+        <v>1.047158873056181</v>
       </c>
       <c r="F13">
-        <v>1.018498313864928</v>
+        <v>1.054029449337331</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043027928274701</v>
+        <v>1.036541459911524</v>
       </c>
       <c r="J13">
-        <v>1.018588027605949</v>
+        <v>1.040281449300816</v>
       </c>
       <c r="K13">
-        <v>1.028601057657645</v>
+        <v>1.045106592842708</v>
       </c>
       <c r="L13">
-        <v>1.024483919262602</v>
+        <v>1.050719998825307</v>
       </c>
       <c r="M13">
-        <v>1.033236619971315</v>
+        <v>1.057565619629942</v>
       </c>
       <c r="N13">
-        <v>1.00988817065021</v>
+        <v>1.017338266179066</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9891779561127872</v>
+        <v>1.033790425434804</v>
       </c>
       <c r="D14">
-        <v>1.01434967666079</v>
+        <v>1.041639824176726</v>
       </c>
       <c r="E14">
-        <v>1.010271915017591</v>
+        <v>1.047302427850743</v>
       </c>
       <c r="F14">
-        <v>1.019181039377633</v>
+        <v>1.054170364577717</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043213334289336</v>
+        <v>1.036566307921731</v>
       </c>
       <c r="J14">
-        <v>1.019044287918846</v>
+        <v>1.040374531954676</v>
       </c>
       <c r="K14">
-        <v>1.029022580463367</v>
+        <v>1.045189842846269</v>
       </c>
       <c r="L14">
-        <v>1.02501940182831</v>
+        <v>1.050831805844975</v>
       </c>
       <c r="M14">
-        <v>1.033766580367432</v>
+        <v>1.057675036763903</v>
       </c>
       <c r="N14">
-        <v>1.010043292045696</v>
+        <v>1.017369618490746</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.989669270450112</v>
+        <v>1.033885380839505</v>
       </c>
       <c r="D15">
-        <v>1.014701947226531</v>
+        <v>1.041710749936597</v>
       </c>
       <c r="E15">
-        <v>1.010696154153339</v>
+        <v>1.047390903318214</v>
       </c>
       <c r="F15">
-        <v>1.019600502599437</v>
+        <v>1.054257210180071</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043326992277459</v>
+        <v>1.036581590811433</v>
       </c>
       <c r="J15">
-        <v>1.019324493012223</v>
+        <v>1.040431886917823</v>
       </c>
       <c r="K15">
-        <v>1.029281414023271</v>
+        <v>1.045241131931086</v>
       </c>
       <c r="L15">
-        <v>1.025348313898569</v>
+        <v>1.050900704403804</v>
       </c>
       <c r="M15">
-        <v>1.034092083349218</v>
+        <v>1.057742459174974</v>
       </c>
       <c r="N15">
-        <v>1.010138553861965</v>
+        <v>1.017388935521044</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9925052917884768</v>
+        <v>1.034438359348951</v>
       </c>
       <c r="D16">
-        <v>1.016737002040052</v>
+        <v>1.042123765597138</v>
       </c>
       <c r="E16">
-        <v>1.013147590008495</v>
+        <v>1.047906273843191</v>
       </c>
       <c r="F16">
-        <v>1.022024149250772</v>
+        <v>1.054763039952597</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043979819214144</v>
+        <v>1.036670134296395</v>
       </c>
       <c r="J16">
-        <v>1.020941705725385</v>
+        <v>1.040765772635679</v>
       </c>
       <c r="K16">
-        <v>1.030774690016868</v>
+        <v>1.045539594651625</v>
       </c>
       <c r="L16">
-        <v>1.027247457266121</v>
+        <v>1.051301883942601</v>
       </c>
       <c r="M16">
-        <v>1.035971275304295</v>
+        <v>1.058134990965544</v>
       </c>
       <c r="N16">
-        <v>1.010688303772861</v>
+        <v>1.017501366121669</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9942639014032189</v>
+        <v>1.034785488532662</v>
       </c>
       <c r="D17">
-        <v>1.018000313256983</v>
+        <v>1.042383011529582</v>
       </c>
       <c r="E17">
-        <v>1.014669951186111</v>
+        <v>1.048229907405255</v>
       </c>
       <c r="F17">
-        <v>1.023529076597035</v>
+        <v>1.055080641034093</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044381748251273</v>
+        <v>1.036725314053291</v>
       </c>
       <c r="J17">
-        <v>1.021944308144725</v>
+        <v>1.040975257766685</v>
       </c>
       <c r="K17">
-        <v>1.031699924921558</v>
+        <v>1.045726756818037</v>
       </c>
       <c r="L17">
-        <v>1.028425560940292</v>
+        <v>1.051553673077388</v>
       </c>
       <c r="M17">
-        <v>1.037136760788748</v>
+        <v>1.058381306290674</v>
       </c>
       <c r="N17">
-        <v>1.011029072209448</v>
+        <v>1.017571887949932</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9952825153642719</v>
+        <v>1.034988056465123</v>
       </c>
       <c r="D18">
-        <v>1.018732516182209</v>
+        <v>1.042534286747863</v>
       </c>
       <c r="E18">
-        <v>1.01555251247806</v>
+        <v>1.048418804814166</v>
       </c>
       <c r="F18">
-        <v>1.024401464307878</v>
+        <v>1.055266002545205</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044613496690465</v>
+        <v>1.03675736908034</v>
       </c>
       <c r="J18">
-        <v>1.022524935926708</v>
+        <v>1.041097463586439</v>
       </c>
       <c r="K18">
-        <v>1.032235550609345</v>
+        <v>1.045835904875977</v>
       </c>
       <c r="L18">
-        <v>1.029108082785364</v>
+        <v>1.051700587314297</v>
       </c>
       <c r="M18">
-        <v>1.037811882717721</v>
+        <v>1.058525009960265</v>
       </c>
       <c r="N18">
-        <v>1.011226397999991</v>
+        <v>1.01761302093222</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9956286397983038</v>
+        <v>1.03505714268385</v>
       </c>
       <c r="D19">
-        <v>1.018981396496046</v>
+        <v>1.042585878056623</v>
       </c>
       <c r="E19">
-        <v>1.01585253801815</v>
+        <v>1.048483235506339</v>
       </c>
       <c r="F19">
-        <v>1.024698019763951</v>
+        <v>1.055329224659065</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04469206424352</v>
+        <v>1.036768276879771</v>
       </c>
       <c r="J19">
-        <v>1.022722215540408</v>
+        <v>1.041139135404497</v>
       </c>
       <c r="K19">
-        <v>1.032417505966011</v>
+        <v>1.045873118031275</v>
       </c>
       <c r="L19">
-        <v>1.029340026582755</v>
+        <v>1.05175068968902</v>
       </c>
       <c r="M19">
-        <v>1.038041296307611</v>
+        <v>1.058574014595883</v>
       </c>
       <c r="N19">
-        <v>1.011293439736739</v>
+        <v>1.017627045996741</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9940759631343227</v>
+        <v>1.03474823518971</v>
       </c>
       <c r="D20">
-        <v>1.017865256688689</v>
+        <v>1.042355190525277</v>
       </c>
       <c r="E20">
-        <v>1.014507178288363</v>
+        <v>1.048195171393013</v>
       </c>
       <c r="F20">
-        <v>1.023368174587867</v>
+        <v>1.055046554034115</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044338904165192</v>
+        <v>1.03671940726992</v>
       </c>
       <c r="J20">
-        <v>1.02183717206343</v>
+        <v>1.040952780259447</v>
       </c>
       <c r="K20">
-        <v>1.031601076485837</v>
+        <v>1.045706678196341</v>
       </c>
       <c r="L20">
-        <v>1.028299644418314</v>
+        <v>1.051526653314294</v>
       </c>
       <c r="M20">
-        <v>1.037012202149681</v>
+        <v>1.058354875654923</v>
       </c>
       <c r="N20">
-        <v>1.010992660452138</v>
+        <v>1.017564321746522</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9889427127722595</v>
+        <v>1.033745047638595</v>
       </c>
       <c r="D21">
-        <v>1.014181038068314</v>
+        <v>1.041605929365983</v>
       </c>
       <c r="E21">
-        <v>1.010068834387854</v>
+        <v>1.047260148992698</v>
       </c>
       <c r="F21">
-        <v>1.018980241649972</v>
+        <v>1.054128863741744</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04315885722656</v>
+        <v>1.036558996381754</v>
       </c>
       <c r="J21">
-        <v>1.018910121148702</v>
+        <v>1.040347120666714</v>
       </c>
       <c r="K21">
-        <v>1.028898636424233</v>
+        <v>1.045165328623999</v>
       </c>
       <c r="L21">
-        <v>1.024861927915466</v>
+        <v>1.050798879260941</v>
       </c>
       <c r="M21">
-        <v>1.033610733974637</v>
+        <v>1.057642814704071</v>
       </c>
       <c r="N21">
-        <v>1.009997678168328</v>
+        <v>1.017360386049621</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9856468264093784</v>
+        <v>1.033115155166347</v>
       </c>
       <c r="D22">
-        <v>1.011820390144605</v>
+        <v>1.041135405123982</v>
       </c>
       <c r="E22">
-        <v>1.007226742822167</v>
+        <v>1.046673424109418</v>
       </c>
       <c r="F22">
-        <v>1.016169887654482</v>
+        <v>1.053552881246684</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042391830443619</v>
+        <v>1.036456969470095</v>
       </c>
       <c r="J22">
-        <v>1.017030181999432</v>
+        <v>1.039966477560529</v>
       </c>
       <c r="K22">
-        <v>1.027161264240023</v>
+        <v>1.044824785377517</v>
       </c>
       <c r="L22">
-        <v>1.0226563831939</v>
+        <v>1.050341758836162</v>
       </c>
       <c r="M22">
-        <v>1.031427680574197</v>
+        <v>1.05719541386851</v>
       </c>
       <c r="N22">
-        <v>1.009358477258256</v>
+        <v>1.017232156043117</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9874007218969731</v>
+        <v>1.033448991882183</v>
       </c>
       <c r="D23">
-        <v>1.013076117777468</v>
+        <v>1.041384784678829</v>
       </c>
       <c r="E23">
-        <v>1.008738415442071</v>
+        <v>1.04698434741808</v>
       </c>
       <c r="F23">
-        <v>1.017664727297829</v>
+        <v>1.053858124482468</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04280086632321</v>
+        <v>1.036511166572402</v>
       </c>
       <c r="J23">
-        <v>1.018030625584634</v>
+        <v>1.040168248164336</v>
       </c>
       <c r="K23">
-        <v>1.028085991859002</v>
+        <v>1.045005329969158</v>
       </c>
       <c r="L23">
-        <v>1.023829879347991</v>
+        <v>1.050584042909142</v>
       </c>
       <c r="M23">
-        <v>1.032589278981405</v>
+        <v>1.05743256053812</v>
       </c>
       <c r="N23">
-        <v>1.009698653323308</v>
+        <v>1.017300133748777</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9941609064129571</v>
+        <v>1.034765068083564</v>
       </c>
       <c r="D24">
-        <v>1.017926297332604</v>
+        <v>1.042367761449933</v>
       </c>
       <c r="E24">
-        <v>1.014580745032286</v>
+        <v>1.048210866708253</v>
       </c>
       <c r="F24">
-        <v>1.023440895973267</v>
+        <v>1.05506195614197</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044358271867477</v>
+        <v>1.036722076694037</v>
       </c>
       <c r="J24">
-        <v>1.021885595123037</v>
+        <v>1.040962936826028</v>
       </c>
       <c r="K24">
-        <v>1.031645754330936</v>
+        <v>1.045715750924612</v>
       </c>
       <c r="L24">
-        <v>1.02835655500919</v>
+        <v>1.051538862228205</v>
       </c>
       <c r="M24">
-        <v>1.037068499295785</v>
+        <v>1.058366818422511</v>
       </c>
       <c r="N24">
-        <v>1.011009117797138</v>
+        <v>1.017567740591949</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001726852753132</v>
+        <v>1.036295957874036</v>
       </c>
       <c r="D25">
-        <v>1.023372633995207</v>
+        <v>1.04351085540309</v>
       </c>
       <c r="E25">
-        <v>1.021149617168401</v>
+        <v>1.049639166066543</v>
       </c>
       <c r="F25">
-        <v>1.029932770651621</v>
+        <v>1.056463250693674</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046060405860846</v>
+        <v>1.036961708797757</v>
       </c>
       <c r="J25">
-        <v>1.026196240844245</v>
+        <v>1.041885778763931</v>
       </c>
       <c r="K25">
-        <v>1.035618639703688</v>
+        <v>1.046539347221533</v>
       </c>
       <c r="L25">
-        <v>1.033428250335767</v>
+        <v>1.052648828637528</v>
       </c>
       <c r="M25">
-        <v>1.042083532768257</v>
+        <v>1.059452226491994</v>
       </c>
       <c r="N25">
-        <v>1.012473690912728</v>
+        <v>1.017878234332989</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_178/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_178/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037519885721228</v>
+        <v>1.007555659222423</v>
       </c>
       <c r="D2">
-        <v>1.044424457115568</v>
+        <v>1.027580522749104</v>
       </c>
       <c r="E2">
-        <v>1.050782331667564</v>
+        <v>1.026232603381458</v>
       </c>
       <c r="F2">
-        <v>1.057584328885758</v>
+        <v>1.034953761979561</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037148687827609</v>
+        <v>1.047337332367835</v>
       </c>
       <c r="J2">
-        <v>1.04262231252285</v>
+        <v>1.029512706666283</v>
       </c>
       <c r="K2">
-        <v>1.047195545589036</v>
+        <v>1.0386685376103</v>
       </c>
       <c r="L2">
-        <v>1.053535653057078</v>
+        <v>1.037338184241648</v>
       </c>
       <c r="M2">
-        <v>1.060318898330117</v>
+        <v>1.045946701216549</v>
       </c>
       <c r="N2">
-        <v>1.018125825952509</v>
+        <v>1.013599716898894</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038410218801321</v>
+        <v>1.011677248271504</v>
       </c>
       <c r="D3">
-        <v>1.04508886747814</v>
+        <v>1.030561787209602</v>
       </c>
       <c r="E3">
-        <v>1.051614634263806</v>
+        <v>1.029838896606923</v>
       </c>
       <c r="F3">
-        <v>1.058400274699204</v>
+        <v>1.038514522344789</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037282031760202</v>
+        <v>1.048219561381448</v>
       </c>
       <c r="J3">
-        <v>1.043157355805672</v>
+        <v>1.031854563605052</v>
       </c>
       <c r="K3">
-        <v>1.047671574350511</v>
+        <v>1.040818005585846</v>
       </c>
       <c r="L3">
-        <v>1.054180419920195</v>
+        <v>1.040103704266233</v>
       </c>
       <c r="M3">
-        <v>1.060948703901473</v>
+        <v>1.048677223773752</v>
       </c>
       <c r="N3">
-        <v>1.018305557543465</v>
+        <v>1.014394330053395</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038987080238854</v>
+        <v>1.014295661713924</v>
       </c>
       <c r="D4">
-        <v>1.045519262808981</v>
+        <v>1.032458112696262</v>
       </c>
       <c r="E4">
-        <v>1.05215422611793</v>
+        <v>1.032135279042804</v>
       </c>
       <c r="F4">
-        <v>1.058929134409287</v>
+        <v>1.040781146524815</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037367190653197</v>
+        <v>1.048770201446333</v>
       </c>
       <c r="J4">
-        <v>1.043503674883248</v>
+        <v>1.0333406198108</v>
       </c>
       <c r="K4">
-        <v>1.047979390252241</v>
+        <v>1.042179965017339</v>
       </c>
       <c r="L4">
-        <v>1.054598013342429</v>
+        <v>1.04186073324361</v>
       </c>
       <c r="M4">
-        <v>1.061356463884899</v>
+        <v>1.050411085493507</v>
       </c>
       <c r="N4">
-        <v>1.018421833660802</v>
+        <v>1.014898306357708</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039229772360095</v>
+        <v>1.015385198954795</v>
       </c>
       <c r="D5">
-        <v>1.045700313531452</v>
+        <v>1.033247698880545</v>
       </c>
       <c r="E5">
-        <v>1.052381316824188</v>
+        <v>1.033092060136747</v>
       </c>
       <c r="F5">
-        <v>1.059151677777257</v>
+        <v>1.041725338749139</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037402721813344</v>
+        <v>1.048996929339298</v>
       </c>
       <c r="J5">
-        <v>1.043649292559623</v>
+        <v>1.033958536840828</v>
       </c>
       <c r="K5">
-        <v>1.048108745298317</v>
+        <v>1.042745784926639</v>
       </c>
       <c r="L5">
-        <v>1.054773660551483</v>
+        <v>1.042591835930258</v>
       </c>
       <c r="M5">
-        <v>1.061527940557921</v>
+        <v>1.051132318227521</v>
       </c>
       <c r="N5">
-        <v>1.018470710334918</v>
+        <v>1.015107800234988</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039270531921559</v>
+        <v>1.015567488295501</v>
       </c>
       <c r="D6">
-        <v>1.045730719291616</v>
+        <v>1.033379832500484</v>
       </c>
       <c r="E6">
-        <v>1.052419460742418</v>
+        <v>1.033252210195714</v>
       </c>
       <c r="F6">
-        <v>1.059189056091174</v>
+        <v>1.041883370259177</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03740867182062</v>
+        <v>1.049034721003385</v>
       </c>
       <c r="J6">
-        <v>1.04367374384535</v>
+        <v>1.034061893190424</v>
       </c>
       <c r="K6">
-        <v>1.048130461565026</v>
+        <v>1.042840397647621</v>
       </c>
       <c r="L6">
-        <v>1.054803157779305</v>
+        <v>1.042714154519505</v>
       </c>
       <c r="M6">
-        <v>1.061556735389025</v>
+        <v>1.051252971801951</v>
       </c>
       <c r="N6">
-        <v>1.018478916589131</v>
+        <v>1.015142837501528</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038990322399142</v>
+        <v>1.014310263859527</v>
       </c>
       <c r="D7">
-        <v>1.045521681577668</v>
+        <v>1.032468692887409</v>
       </c>
       <c r="E7">
-        <v>1.052157259549605</v>
+        <v>1.032148097110205</v>
       </c>
       <c r="F7">
-        <v>1.058932107218952</v>
+        <v>1.040793796697529</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037367666482614</v>
+        <v>1.04877324960015</v>
       </c>
       <c r="J7">
-        <v>1.04350562053659</v>
+        <v>1.033348903005047</v>
       </c>
       <c r="K7">
-        <v>1.047981118901794</v>
+        <v>1.042187551826405</v>
       </c>
       <c r="L7">
-        <v>1.054600359993618</v>
+        <v>1.041870531669115</v>
       </c>
       <c r="M7">
-        <v>1.0613587549529</v>
+        <v>1.050420752555892</v>
       </c>
       <c r="N7">
-        <v>1.018422486776729</v>
+        <v>1.014901114887576</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037820620427025</v>
+        <v>1.008958848828333</v>
       </c>
       <c r="D8">
-        <v>1.044648897799303</v>
+        <v>1.028594966934323</v>
       </c>
       <c r="E8">
-        <v>1.051063396528754</v>
+        <v>1.027459221976027</v>
       </c>
       <c r="F8">
-        <v>1.057859896546268</v>
+        <v>1.036165048911796</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037193984275485</v>
+        <v>1.047639721927431</v>
       </c>
       <c r="J8">
-        <v>1.042803109304641</v>
+        <v>1.030310327690218</v>
       </c>
       <c r="K8">
-        <v>1.047356463713164</v>
+        <v>1.039401046065015</v>
       </c>
       <c r="L8">
-        <v>1.053753474174816</v>
+        <v>1.038279655949836</v>
       </c>
       <c r="M8">
-        <v>1.060531694749562</v>
+        <v>1.046876449919176</v>
       </c>
       <c r="N8">
-        <v>1.018186571400911</v>
+        <v>1.013870408635734</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035765316134513</v>
+        <v>0.9991396078743806</v>
       </c>
       <c r="D9">
-        <v>1.043114675559138</v>
+        <v>1.021508154863305</v>
       </c>
       <c r="E9">
-        <v>1.049143888809025</v>
+        <v>1.018899693525054</v>
       </c>
       <c r="F9">
-        <v>1.055977410667095</v>
+        <v>1.02770957799612</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036879358170115</v>
+        <v>1.045483655856229</v>
       </c>
       <c r="J9">
-        <v>1.041566095616009</v>
+        <v>1.024722785432131</v>
       </c>
       <c r="K9">
-        <v>1.046254217695499</v>
+        <v>1.034261655837821</v>
       </c>
       <c r="L9">
-        <v>1.052264177371582</v>
+        <v>1.031693401846601</v>
       </c>
       <c r="M9">
-        <v>1.059076167749025</v>
+        <v>1.040368532978188</v>
       </c>
       <c r="N9">
-        <v>1.017770709299369</v>
+        <v>1.011973185944017</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03439914307695</v>
+        <v>0.9923055711484539</v>
       </c>
       <c r="D10">
-        <v>1.042094476668717</v>
+        <v>1.016593597275704</v>
       </c>
       <c r="E10">
-        <v>1.047869717421468</v>
+        <v>1.012974807809616</v>
       </c>
       <c r="F10">
-        <v>1.054727162926161</v>
+        <v>1.021853336878926</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036663880825162</v>
+        <v>1.043934030615483</v>
       </c>
       <c r="J10">
-        <v>1.040742101087567</v>
+        <v>1.020827830833498</v>
       </c>
       <c r="K10">
-        <v>1.045518440787194</v>
+        <v>1.030669576033649</v>
       </c>
       <c r="L10">
-        <v>1.051273436133985</v>
+        <v>1.027113684178714</v>
       </c>
       <c r="M10">
-        <v>1.058107159344709</v>
+        <v>1.03583892298586</v>
       </c>
       <c r="N10">
-        <v>1.017493396324403</v>
+        <v>1.010649596857347</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03380854970372</v>
+        <v>0.9892718325898232</v>
       </c>
       <c r="D11">
-        <v>1.041653361968386</v>
+        <v>1.014416979203297</v>
       </c>
       <c r="E11">
-        <v>1.047319314788292</v>
+        <v>1.010352965068213</v>
       </c>
       <c r="F11">
-        <v>1.054186940610297</v>
+        <v>1.019261177722808</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036569226753983</v>
+        <v>1.043235063669487</v>
       </c>
       <c r="J11">
-        <v>1.040385479855142</v>
+        <v>1.019097828058617</v>
       </c>
       <c r="K11">
-        <v>1.045199633322448</v>
+        <v>1.029072039298793</v>
       </c>
       <c r="L11">
-        <v>1.050844956820723</v>
+        <v>1.025082245463811</v>
       </c>
       <c r="M11">
-        <v>1.057687906183367</v>
+        <v>1.033828773665018</v>
       </c>
       <c r="N11">
-        <v>1.017373305803039</v>
+        <v>1.010061494392774</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033589324048416</v>
+        <v>0.9881331965983774</v>
       </c>
       <c r="D12">
-        <v>1.041489609999868</v>
+        <v>1.013600870493946</v>
       </c>
       <c r="E12">
-        <v>1.0471150712191</v>
+        <v>1.009370227498879</v>
       </c>
       <c r="F12">
-        <v>1.053986451669231</v>
+        <v>1.018289472098936</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036533865700757</v>
+        <v>1.042971112029441</v>
       </c>
       <c r="J12">
-        <v>1.040253042243656</v>
+        <v>1.018448412594837</v>
       </c>
       <c r="K12">
-        <v>1.045081183625847</v>
+        <v>1.028472057181032</v>
       </c>
       <c r="L12">
-        <v>1.050685879902941</v>
+        <v>1.024320083921083</v>
       </c>
       <c r="M12">
-        <v>1.057532228633958</v>
+        <v>1.033074467374697</v>
       </c>
       <c r="N12">
-        <v>1.01732869749181</v>
+        <v>1.009840702330761</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033636342018542</v>
+        <v>0.9883779800506937</v>
       </c>
       <c r="D13">
-        <v>1.0415247309043</v>
+        <v>1.0137762785071</v>
       </c>
       <c r="E13">
-        <v>1.047158873056181</v>
+        <v>1.009581436137174</v>
       </c>
       <c r="F13">
-        <v>1.054029449337331</v>
+        <v>1.018498313864928</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036541459911524</v>
+        <v>1.043027928274701</v>
       </c>
       <c r="J13">
-        <v>1.040281449300816</v>
+        <v>1.018588027605949</v>
       </c>
       <c r="K13">
-        <v>1.045106592842708</v>
+        <v>1.028601057657645</v>
       </c>
       <c r="L13">
-        <v>1.050719998825307</v>
+        <v>1.024483919262602</v>
       </c>
       <c r="M13">
-        <v>1.057565619629942</v>
+        <v>1.033236619971315</v>
       </c>
       <c r="N13">
-        <v>1.017338266179066</v>
+        <v>1.00988817065021</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033790425434804</v>
+        <v>0.9891779561127869</v>
       </c>
       <c r="D14">
-        <v>1.041639824176726</v>
+        <v>1.014349676660789</v>
       </c>
       <c r="E14">
-        <v>1.047302427850743</v>
+        <v>1.01027191501759</v>
       </c>
       <c r="F14">
-        <v>1.054170364577717</v>
+        <v>1.019181039377632</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036566307921731</v>
+        <v>1.043213334289336</v>
       </c>
       <c r="J14">
-        <v>1.040374531954676</v>
+        <v>1.019044287918846</v>
       </c>
       <c r="K14">
-        <v>1.045189842846269</v>
+        <v>1.029022580463367</v>
       </c>
       <c r="L14">
-        <v>1.050831805844975</v>
+        <v>1.025019401828309</v>
       </c>
       <c r="M14">
-        <v>1.057675036763903</v>
+        <v>1.033766580367432</v>
       </c>
       <c r="N14">
-        <v>1.017369618490746</v>
+        <v>1.010043292045696</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033885380839505</v>
+        <v>0.9896692704501119</v>
       </c>
       <c r="D15">
-        <v>1.041710749936597</v>
+        <v>1.01470194722653</v>
       </c>
       <c r="E15">
-        <v>1.047390903318214</v>
+        <v>1.010696154153339</v>
       </c>
       <c r="F15">
-        <v>1.054257210180071</v>
+        <v>1.019600502599437</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036581590811433</v>
+        <v>1.043326992277459</v>
       </c>
       <c r="J15">
-        <v>1.040431886917823</v>
+        <v>1.019324493012223</v>
       </c>
       <c r="K15">
-        <v>1.045241131931086</v>
+        <v>1.029281414023271</v>
       </c>
       <c r="L15">
-        <v>1.050900704403804</v>
+        <v>1.02534831389857</v>
       </c>
       <c r="M15">
-        <v>1.057742459174974</v>
+        <v>1.034092083349218</v>
       </c>
       <c r="N15">
-        <v>1.017388935521044</v>
+        <v>1.010138553861965</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034438359348951</v>
+        <v>0.9925052917884766</v>
       </c>
       <c r="D16">
-        <v>1.042123765597138</v>
+        <v>1.016737002040052</v>
       </c>
       <c r="E16">
-        <v>1.047906273843191</v>
+        <v>1.013147590008495</v>
       </c>
       <c r="F16">
-        <v>1.054763039952597</v>
+        <v>1.022024149250772</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036670134296395</v>
+        <v>1.043979819214144</v>
       </c>
       <c r="J16">
-        <v>1.040765772635679</v>
+        <v>1.020941705725384</v>
       </c>
       <c r="K16">
-        <v>1.045539594651625</v>
+        <v>1.030774690016868</v>
       </c>
       <c r="L16">
-        <v>1.051301883942601</v>
+        <v>1.027247457266121</v>
       </c>
       <c r="M16">
-        <v>1.058134990965544</v>
+        <v>1.035971275304295</v>
       </c>
       <c r="N16">
-        <v>1.017501366121669</v>
+        <v>1.010688303772861</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034785488532662</v>
+        <v>0.9942639014032177</v>
       </c>
       <c r="D17">
-        <v>1.042383011529582</v>
+        <v>1.018000313256982</v>
       </c>
       <c r="E17">
-        <v>1.048229907405255</v>
+        <v>1.014669951186109</v>
       </c>
       <c r="F17">
-        <v>1.055080641034093</v>
+        <v>1.023529076597034</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036725314053291</v>
+        <v>1.044381748251273</v>
       </c>
       <c r="J17">
-        <v>1.040975257766685</v>
+        <v>1.021944308144725</v>
       </c>
       <c r="K17">
-        <v>1.045726756818037</v>
+        <v>1.031699924921558</v>
       </c>
       <c r="L17">
-        <v>1.051553673077388</v>
+        <v>1.028425560940291</v>
       </c>
       <c r="M17">
-        <v>1.058381306290674</v>
+        <v>1.037136760788747</v>
       </c>
       <c r="N17">
-        <v>1.017571887949932</v>
+        <v>1.011029072209448</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034988056465123</v>
+        <v>0.9952825153642718</v>
       </c>
       <c r="D18">
-        <v>1.042534286747863</v>
+        <v>1.018732516182209</v>
       </c>
       <c r="E18">
-        <v>1.048418804814166</v>
+        <v>1.01555251247806</v>
       </c>
       <c r="F18">
-        <v>1.055266002545205</v>
+        <v>1.024401464307878</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03675736908034</v>
+        <v>1.044613496690465</v>
       </c>
       <c r="J18">
-        <v>1.041097463586439</v>
+        <v>1.022524935926708</v>
       </c>
       <c r="K18">
-        <v>1.045835904875977</v>
+        <v>1.032235550609345</v>
       </c>
       <c r="L18">
-        <v>1.051700587314297</v>
+        <v>1.029108082785364</v>
       </c>
       <c r="M18">
-        <v>1.058525009960265</v>
+        <v>1.03781188271772</v>
       </c>
       <c r="N18">
-        <v>1.01761302093222</v>
+        <v>1.011226397999991</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03505714268385</v>
+        <v>0.995628639798304</v>
       </c>
       <c r="D19">
-        <v>1.042585878056623</v>
+        <v>1.018981396496047</v>
       </c>
       <c r="E19">
-        <v>1.048483235506339</v>
+        <v>1.01585253801815</v>
       </c>
       <c r="F19">
-        <v>1.055329224659065</v>
+        <v>1.024698019763951</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036768276879771</v>
+        <v>1.04469206424352</v>
       </c>
       <c r="J19">
-        <v>1.041139135404497</v>
+        <v>1.022722215540409</v>
       </c>
       <c r="K19">
-        <v>1.045873118031275</v>
+        <v>1.032417505966011</v>
       </c>
       <c r="L19">
-        <v>1.05175068968902</v>
+        <v>1.029340026582755</v>
       </c>
       <c r="M19">
-        <v>1.058574014595883</v>
+        <v>1.038041296307612</v>
       </c>
       <c r="N19">
-        <v>1.017627045996741</v>
+        <v>1.011293439736739</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03474823518971</v>
+        <v>0.9940759631343227</v>
       </c>
       <c r="D20">
-        <v>1.042355190525277</v>
+        <v>1.017865256688689</v>
       </c>
       <c r="E20">
-        <v>1.048195171393013</v>
+        <v>1.014507178288363</v>
       </c>
       <c r="F20">
-        <v>1.055046554034115</v>
+        <v>1.023368174587867</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03671940726992</v>
+        <v>1.044338904165192</v>
       </c>
       <c r="J20">
-        <v>1.040952780259447</v>
+        <v>1.02183717206343</v>
       </c>
       <c r="K20">
-        <v>1.045706678196341</v>
+        <v>1.031601076485837</v>
       </c>
       <c r="L20">
-        <v>1.051526653314294</v>
+        <v>1.028299644418314</v>
       </c>
       <c r="M20">
-        <v>1.058354875654923</v>
+        <v>1.037012202149681</v>
       </c>
       <c r="N20">
-        <v>1.017564321746522</v>
+        <v>1.010992660452138</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033745047638595</v>
+        <v>0.9889427127722592</v>
       </c>
       <c r="D21">
-        <v>1.041605929365983</v>
+        <v>1.014181038068314</v>
       </c>
       <c r="E21">
-        <v>1.047260148992698</v>
+        <v>1.010068834387853</v>
       </c>
       <c r="F21">
-        <v>1.054128863741744</v>
+        <v>1.018980241649972</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036558996381754</v>
+        <v>1.04315885722656</v>
       </c>
       <c r="J21">
-        <v>1.040347120666714</v>
+        <v>1.018910121148702</v>
       </c>
       <c r="K21">
-        <v>1.045165328623999</v>
+        <v>1.028898636424233</v>
       </c>
       <c r="L21">
-        <v>1.050798879260941</v>
+        <v>1.024861927915466</v>
       </c>
       <c r="M21">
-        <v>1.057642814704071</v>
+        <v>1.033610733974637</v>
       </c>
       <c r="N21">
-        <v>1.017360386049621</v>
+        <v>1.009997678168328</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033115155166347</v>
+        <v>0.985646826409379</v>
       </c>
       <c r="D22">
-        <v>1.041135405123982</v>
+        <v>1.011820390144605</v>
       </c>
       <c r="E22">
-        <v>1.046673424109418</v>
+        <v>1.007226742822168</v>
       </c>
       <c r="F22">
-        <v>1.053552881246684</v>
+        <v>1.016169887654483</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036456969470095</v>
+        <v>1.042391830443619</v>
       </c>
       <c r="J22">
-        <v>1.039966477560529</v>
+        <v>1.017030181999433</v>
       </c>
       <c r="K22">
-        <v>1.044824785377517</v>
+        <v>1.027161264240023</v>
       </c>
       <c r="L22">
-        <v>1.050341758836162</v>
+        <v>1.0226563831939</v>
       </c>
       <c r="M22">
-        <v>1.05719541386851</v>
+        <v>1.031427680574197</v>
       </c>
       <c r="N22">
-        <v>1.017232156043117</v>
+        <v>1.009358477258256</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033448991882183</v>
+        <v>0.9874007218969719</v>
       </c>
       <c r="D23">
-        <v>1.041384784678829</v>
+        <v>1.013076117777467</v>
       </c>
       <c r="E23">
-        <v>1.04698434741808</v>
+        <v>1.00873841544207</v>
       </c>
       <c r="F23">
-        <v>1.053858124482468</v>
+        <v>1.017664727297827</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036511166572402</v>
+        <v>1.042800866323209</v>
       </c>
       <c r="J23">
-        <v>1.040168248164336</v>
+        <v>1.018030625584633</v>
       </c>
       <c r="K23">
-        <v>1.045005329969158</v>
+        <v>1.028085991859001</v>
       </c>
       <c r="L23">
-        <v>1.050584042909142</v>
+        <v>1.02382987934799</v>
       </c>
       <c r="M23">
-        <v>1.05743256053812</v>
+        <v>1.032589278981404</v>
       </c>
       <c r="N23">
-        <v>1.017300133748777</v>
+        <v>1.009698653323308</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034765068083564</v>
+        <v>0.9941609064129566</v>
       </c>
       <c r="D24">
-        <v>1.042367761449933</v>
+        <v>1.017926297332604</v>
       </c>
       <c r="E24">
-        <v>1.048210866708253</v>
+        <v>1.014580745032285</v>
       </c>
       <c r="F24">
-        <v>1.05506195614197</v>
+        <v>1.023440895973266</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036722076694037</v>
+        <v>1.044358271867477</v>
       </c>
       <c r="J24">
-        <v>1.040962936826028</v>
+        <v>1.021885595123037</v>
       </c>
       <c r="K24">
-        <v>1.045715750924612</v>
+        <v>1.031645754330935</v>
       </c>
       <c r="L24">
-        <v>1.051538862228205</v>
+        <v>1.02835655500919</v>
       </c>
       <c r="M24">
-        <v>1.058366818422511</v>
+        <v>1.037068499295785</v>
       </c>
       <c r="N24">
-        <v>1.017567740591949</v>
+        <v>1.011009117797138</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036295957874036</v>
+        <v>1.001726852753132</v>
       </c>
       <c r="D25">
-        <v>1.04351085540309</v>
+        <v>1.023372633995207</v>
       </c>
       <c r="E25">
-        <v>1.049639166066543</v>
+        <v>1.021149617168401</v>
       </c>
       <c r="F25">
-        <v>1.056463250693674</v>
+        <v>1.029932770651621</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036961708797757</v>
+        <v>1.046060405860846</v>
       </c>
       <c r="J25">
-        <v>1.041885778763931</v>
+        <v>1.026196240844246</v>
       </c>
       <c r="K25">
-        <v>1.046539347221533</v>
+        <v>1.035618639703688</v>
       </c>
       <c r="L25">
-        <v>1.052648828637528</v>
+        <v>1.033428250335768</v>
       </c>
       <c r="M25">
-        <v>1.059452226491994</v>
+        <v>1.042083532768257</v>
       </c>
       <c r="N25">
-        <v>1.017878234332989</v>
+        <v>1.012473690912728</v>
       </c>
     </row>
   </sheetData>
